--- a/database/data/Excel/Stations.xlsx
+++ b/database/data/Excel/Stations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\mhreja\metro-api\database\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F5BC67-095C-438E-B6C7-941F8D0A06AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7845A007-A3A5-4375-8D9B-286F9BF06D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A96E7AD2-E036-4653-9E19-2E13F53416AD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="303">
   <si>
     <t>Station Name</t>
   </si>
@@ -396,9 +396,6 @@
     <t>Vaishali</t>
   </si>
   <si>
-    <t>New Delhi-Airport Express</t>
-  </si>
-  <si>
     <t>Shivaji Stadium</t>
   </si>
   <si>
@@ -904,9 +901,6 @@
   </si>
   <si>
     <t>blue,orange</t>
-  </si>
-  <si>
-    <t>orange,yellow</t>
   </si>
   <si>
     <t>orange,pink</t>
@@ -1291,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0201C39C-BD0E-4FA6-BDEA-44EC7F0EBC63}">
-  <dimension ref="A1:C266"/>
+  <dimension ref="A1:C265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1320,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2">
         <v>80</v>
@@ -1331,7 +1325,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C3">
         <v>1320</v>
@@ -1342,7 +1336,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4">
         <v>960</v>
@@ -1353,7 +1347,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C5">
         <v>1200</v>
@@ -1364,7 +1358,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C6">
         <v>840</v>
@@ -1375,7 +1369,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C7">
         <v>1080</v>
@@ -1386,7 +1380,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C8">
         <v>1140</v>
@@ -1397,7 +1391,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C9">
         <v>1260</v>
@@ -1408,7 +1402,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C10">
         <v>780</v>
@@ -1419,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C11">
         <v>900</v>
@@ -1430,7 +1424,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C12">
         <v>840</v>
@@ -1441,7 +1435,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C13">
         <v>1020</v>
@@ -1452,7 +1446,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C14">
         <v>1980</v>
@@ -1463,7 +1457,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C15">
         <v>960</v>
@@ -1474,7 +1468,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C16">
         <v>1440</v>
@@ -1485,7 +1479,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C17">
         <v>1560</v>
@@ -1496,7 +1490,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C18">
         <v>840</v>
@@ -1507,7 +1501,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C19">
         <v>900</v>
@@ -1518,7 +1512,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C20">
         <v>900</v>
@@ -1529,7 +1523,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C21">
         <v>900</v>
@@ -1540,7 +1534,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C22">
         <v>1320</v>
@@ -1551,7 +1545,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C23">
         <v>1140</v>
@@ -1562,7 +1556,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C24">
         <v>960</v>
@@ -1573,7 +1567,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C25">
         <v>1200</v>
@@ -1584,7 +1578,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C26">
         <v>1140</v>
@@ -1595,7 +1589,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C27">
         <v>840</v>
@@ -1606,7 +1600,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C28">
         <v>1020</v>
@@ -1617,7 +1611,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C29">
         <v>1380</v>
@@ -1628,7 +1622,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C30">
         <v>2400</v>
@@ -1639,7 +1633,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C31">
         <v>178</v>
@@ -1650,7 +1644,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C32">
         <v>1380</v>
@@ -1661,7 +1655,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C33">
         <v>1860</v>
@@ -1672,7 +1666,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C34">
         <v>900</v>
@@ -1683,7 +1677,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C35">
         <v>1140</v>
@@ -1694,7 +1688,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C36">
         <v>2340</v>
@@ -1705,7 +1699,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C37">
         <v>1380</v>
@@ -1716,7 +1710,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C38">
         <v>1620</v>
@@ -1727,7 +1721,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C39">
         <v>1080</v>
@@ -1738,7 +1732,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C40">
         <v>1020</v>
@@ -1749,7 +1743,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C41">
         <v>1080</v>
@@ -1760,7 +1754,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C42">
         <v>1020</v>
@@ -1771,7 +1765,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C43">
         <v>1020</v>
@@ -1782,7 +1776,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C44">
         <v>2400</v>
@@ -1793,7 +1787,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C45">
         <v>110</v>
@@ -1804,7 +1798,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C46">
         <v>780</v>
@@ -1815,7 +1809,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C47">
         <v>900</v>
@@ -1826,7 +1820,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C48">
         <v>900</v>
@@ -1837,7 +1831,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C49">
         <v>1080</v>
@@ -1848,7 +1842,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C50">
         <v>73</v>
@@ -1859,7 +1853,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C51">
         <v>1200</v>
@@ -1870,7 +1864,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C52">
         <v>1080</v>
@@ -1881,7 +1875,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C53">
         <v>2820</v>
@@ -1892,7 +1886,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C54">
         <v>1080</v>
@@ -1903,7 +1897,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C55">
         <v>1200</v>
@@ -1914,7 +1908,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C56">
         <v>1320</v>
@@ -1925,7 +1919,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C57">
         <v>1740</v>
@@ -1936,7 +1930,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C58">
         <v>1380</v>
@@ -1947,7 +1941,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C59">
         <v>900</v>
@@ -1958,7 +1952,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C60">
         <v>1140</v>
@@ -1969,7 +1963,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C61">
         <v>1740</v>
@@ -1980,7 +1974,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C62">
         <v>1260</v>
@@ -1991,7 +1985,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C63">
         <v>2160</v>
@@ -2002,7 +1996,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C64">
         <v>1140</v>
@@ -2013,7 +2007,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C65">
         <v>1740</v>
@@ -2024,7 +2018,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C66">
         <v>110</v>
@@ -2035,7 +2029,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C67">
         <v>143</v>
@@ -2046,7 +2040,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C68">
         <v>960</v>
@@ -2057,7 +2051,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C69">
         <v>1140</v>
@@ -2068,7 +2062,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C70">
         <v>1260</v>
@@ -2079,7 +2073,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C71">
         <v>1620</v>
@@ -2090,7 +2084,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C72">
         <v>1080</v>
@@ -2101,7 +2095,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C73">
         <v>1500</v>
@@ -2112,7 +2106,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C74">
         <v>1380</v>
@@ -2123,7 +2117,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C75">
         <v>2340</v>
@@ -2134,7 +2128,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C76">
         <v>1560</v>
@@ -2145,7 +2139,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C77">
         <v>780</v>
@@ -2156,7 +2150,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C78">
         <v>1020</v>
@@ -2167,7 +2161,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C79">
         <v>1260</v>
@@ -2178,7 +2172,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C80">
         <v>2040</v>
@@ -2189,7 +2183,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C81">
         <v>2580</v>
@@ -2200,7 +2194,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C82">
         <v>960</v>
@@ -2211,7 +2205,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C83">
         <v>1860</v>
@@ -2222,7 +2216,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C84">
         <v>1320</v>
@@ -2233,7 +2227,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C85">
         <v>840</v>
@@ -2244,7 +2238,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C86">
         <v>1440</v>
@@ -2255,7 +2249,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C87">
         <v>840</v>
@@ -2266,7 +2260,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C88">
         <v>900</v>
@@ -2277,7 +2271,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C89">
         <v>1140</v>
@@ -2288,7 +2282,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C90">
         <v>1320</v>
@@ -2299,7 +2293,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C91">
         <v>720</v>
@@ -2310,7 +2304,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C92">
         <v>1080</v>
@@ -2321,7 +2315,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C93">
         <v>1380</v>
@@ -2332,7 +2326,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2343,7 +2337,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C95">
         <v>1260</v>
@@ -2354,7 +2348,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C96">
         <v>420</v>
@@ -2365,7 +2359,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C97">
         <v>1080</v>
@@ -2376,7 +2370,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C98">
         <v>47</v>
@@ -2387,7 +2381,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C99">
         <v>840</v>
@@ -2398,7 +2392,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C100">
         <v>1740</v>
@@ -2409,7 +2403,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C101">
         <v>1020</v>
@@ -2420,7 +2414,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C102">
         <v>1320</v>
@@ -2431,7 +2425,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C103">
         <v>1080</v>
@@ -2442,7 +2436,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C104">
         <v>1980</v>
@@ -2453,7 +2447,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C105">
         <v>1080</v>
@@ -2464,7 +2458,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C106">
         <v>2820</v>
@@ -2475,7 +2469,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C107">
         <v>2640</v>
@@ -2486,7 +2480,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C108">
         <v>2280</v>
@@ -2497,7 +2491,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C109">
         <v>1320</v>
@@ -2508,7 +2502,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C110">
         <v>1020</v>
@@ -2519,7 +2513,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C111">
         <v>1380</v>
@@ -2530,7 +2524,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C112">
         <v>1380</v>
@@ -2541,7 +2535,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C113">
         <v>2100</v>
@@ -2552,7 +2546,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C114">
         <v>3420</v>
@@ -2563,7 +2557,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C115">
         <v>126</v>
@@ -2574,7 +2568,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C116">
         <v>1500</v>
@@ -2585,7 +2579,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C117">
         <v>600</v>
@@ -2596,7 +2590,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C118">
         <v>1560</v>
@@ -2607,7 +2601,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C119">
         <v>1920</v>
@@ -2618,7 +2612,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C120">
         <v>1020</v>
@@ -2629,7 +2623,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C121">
         <v>1200</v>
@@ -2640,7 +2634,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C122">
         <v>120</v>
@@ -2651,10 +2645,10 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="C123">
-        <v>218</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2662,10 +2656,10 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="C124">
-        <v>2040</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2673,10 +2667,10 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="C125">
-        <v>1680</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2684,10 +2678,10 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C126">
-        <v>2340</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2695,10 +2689,10 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="C127">
-        <v>3000</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2706,10 +2700,10 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="C128">
-        <v>72</v>
+        <v>180</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2717,10 +2711,10 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C129">
-        <v>180</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2728,10 +2722,10 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="C130">
-        <v>1020</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2739,10 +2733,10 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="C131">
-        <v>1380</v>
+        <v>840</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2750,10 +2744,10 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C132">
-        <v>840</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2761,10 +2755,10 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C133">
-        <v>1140</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2772,10 +2766,10 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C134">
-        <v>1020</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2783,10 +2777,10 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C135">
-        <v>1140</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2794,10 +2788,10 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C136">
-        <v>1920</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2805,10 +2799,10 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C137">
-        <v>1140</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2816,10 +2810,10 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C138">
-        <v>1320</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2827,10 +2821,10 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C139">
-        <v>1380</v>
+        <v>960</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2838,10 +2832,10 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C140">
-        <v>960</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2849,10 +2843,10 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C141">
-        <v>1680</v>
+        <v>840</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2860,10 +2854,10 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C142">
-        <v>840</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2871,10 +2865,10 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C143">
-        <v>1260</v>
+        <v>780</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2882,10 +2876,10 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C144">
-        <v>780</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2893,10 +2887,10 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C145">
-        <v>1140</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2904,10 +2898,10 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C146">
-        <v>1860</v>
+        <v>600</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2915,10 +2909,10 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C147">
-        <v>600</v>
+        <v>780</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2926,10 +2920,10 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C148">
-        <v>780</v>
+        <v>70</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2937,10 +2931,10 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C149">
-        <v>70</v>
+        <v>600</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2951,7 +2945,7 @@
         <v>271</v>
       </c>
       <c r="C150">
-        <v>600</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2959,10 +2953,10 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C151">
-        <v>1740</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2970,10 +2964,10 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C152">
-        <v>1560</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2981,10 +2975,10 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C153">
-        <v>1080</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2992,10 +2986,10 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C154">
-        <v>1680</v>
+        <v>900</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -3003,10 +2997,10 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C155">
-        <v>900</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -3014,10 +3008,10 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C156">
-        <v>1260</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -3025,10 +3019,10 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C157">
-        <v>2100</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -3036,10 +3030,10 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="C158">
-        <v>1200</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -3047,10 +3041,10 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="C159">
-        <v>1080</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -3058,10 +3052,10 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C160">
-        <v>1680</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -3069,10 +3063,10 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C161">
-        <v>1500</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -3080,10 +3074,10 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="C162">
-        <v>2340</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -3091,10 +3085,10 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="C163">
-        <v>1320</v>
+        <v>720</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -3102,10 +3096,10 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C164">
-        <v>720</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -3113,10 +3107,10 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C165">
-        <v>1140</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -3124,10 +3118,10 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C166">
-        <v>1560</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -3135,10 +3129,10 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C167">
-        <v>1020</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -3146,10 +3140,10 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C168">
-        <v>1140</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3157,10 +3151,10 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C169">
-        <v>1560</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -3168,10 +3162,10 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C170">
-        <v>1860</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3179,10 +3173,10 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C171">
-        <v>1140</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3190,10 +3184,10 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C172">
-        <v>1500</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -3201,10 +3195,10 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C173">
-        <v>1860</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -3212,10 +3206,10 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C174">
-        <v>1560</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -3223,10 +3217,10 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C175">
-        <v>1320</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3234,10 +3228,10 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C176">
-        <v>2040</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -3245,10 +3239,10 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C177">
-        <v>1020</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -3256,10 +3250,10 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C178">
-        <v>1620</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -3267,10 +3261,10 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C179">
-        <v>2460</v>
+        <v>960</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -3278,10 +3272,10 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C180">
-        <v>960</v>
+        <v>143</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -3292,7 +3286,7 @@
         <v>272</v>
       </c>
       <c r="C181">
-        <v>143</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -3300,10 +3294,10 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C182">
-        <v>1740</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -3311,10 +3305,10 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C183">
-        <v>1440</v>
+        <v>960</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -3322,10 +3316,10 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C184">
-        <v>960</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -3333,10 +3327,10 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C185">
-        <v>1140</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -3344,10 +3338,10 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C186">
-        <v>2040</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -3355,10 +3349,10 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C187">
-        <v>1020</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -3366,10 +3360,10 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C188">
-        <v>1500</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -3377,10 +3371,10 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C189">
-        <v>1440</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -3388,10 +3382,10 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C190">
-        <v>2580</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -3399,10 +3393,10 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C191">
-        <v>1920</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -3410,10 +3404,10 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C192">
-        <v>1200</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -3421,10 +3415,10 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C193">
-        <v>1320</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -3432,10 +3426,10 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C194">
-        <v>1200</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -3443,10 +3437,10 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C195">
-        <v>1260</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -3454,10 +3448,10 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C196">
-        <v>1380</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -3465,10 +3459,10 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C197">
-        <v>1980</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -3476,10 +3470,10 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C198">
-        <v>1620</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -3487,10 +3481,10 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C199">
-        <v>1980</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -3498,10 +3492,10 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C200">
-        <v>1320</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3509,10 +3503,10 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C201">
-        <v>2460</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3523,7 +3517,7 @@
         <v>273</v>
       </c>
       <c r="C202">
-        <v>1260</v>
+        <v>130</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3531,10 +3525,10 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C203">
-        <v>130</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3542,10 +3536,10 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C204">
-        <v>1140</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3553,10 +3547,10 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C205">
-        <v>1380</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3564,10 +3558,10 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C206">
-        <v>1500</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3575,10 +3569,10 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C207">
-        <v>1440</v>
+        <v>960</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -3586,10 +3580,10 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C208">
-        <v>960</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3597,10 +3591,10 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="C209">
-        <v>1020</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3608,10 +3602,10 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="C210">
-        <v>1080</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3619,10 +3613,10 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C211">
-        <v>1980</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3630,10 +3624,10 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C212">
-        <v>2040</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3641,10 +3635,10 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C213">
-        <v>1740</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3652,10 +3646,10 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C214">
-        <v>1080</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3663,7 +3657,7 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C215">
         <v>1980</v>
@@ -3674,10 +3668,10 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C216">
-        <v>1980</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -3685,10 +3679,10 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="C217">
-        <v>1740</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -3696,10 +3690,10 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="C218">
-        <v>1800</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3707,10 +3701,10 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C219">
-        <v>1320</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3718,10 +3712,10 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C220">
-        <v>1260</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3729,10 +3723,10 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C221">
-        <v>1500</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3740,10 +3734,10 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C222">
-        <v>1320</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3751,10 +3745,10 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C223">
-        <v>1380</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3762,10 +3756,10 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C224">
-        <v>1200</v>
+        <v>840</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3773,10 +3767,10 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C225">
-        <v>840</v>
+        <v>960</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3784,10 +3778,10 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C226">
-        <v>960</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3795,10 +3789,10 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C227">
-        <v>1080</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3806,10 +3800,10 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C228">
-        <v>2160</v>
+        <v>960</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3817,10 +3811,10 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C229">
-        <v>960</v>
+        <v>900</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -3828,10 +3822,10 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C230">
-        <v>900</v>
+        <v>110</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3839,10 +3833,10 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="C231">
-        <v>110</v>
+        <v>283</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -3850,10 +3844,10 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C232">
-        <v>283</v>
+        <v>780</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -3861,10 +3855,10 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C233">
-        <v>780</v>
+        <v>900</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -3872,10 +3866,10 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C234">
-        <v>900</v>
+        <v>600</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -3883,10 +3877,10 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C235">
-        <v>600</v>
+        <v>720</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -3894,10 +3888,10 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C236">
-        <v>720</v>
+        <v>780</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -3905,7 +3899,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C237">
         <v>780</v>
@@ -3916,10 +3910,10 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C238">
-        <v>780</v>
+        <v>840</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -3927,10 +3921,10 @@
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C239">
-        <v>840</v>
+        <v>780</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3938,10 +3932,10 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C240">
-        <v>780</v>
+        <v>720</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3949,10 +3943,10 @@
         <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C241">
-        <v>720</v>
+        <v>600</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3960,10 +3954,10 @@
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C242">
-        <v>600</v>
+        <v>660</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3971,7 +3965,7 @@
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C243">
         <v>660</v>
@@ -3982,10 +3976,10 @@
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C244">
-        <v>660</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3993,10 +3987,10 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C245">
-        <v>1200</v>
+        <v>900</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -4004,10 +3998,10 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C246">
-        <v>900</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -4015,10 +4009,10 @@
         <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C247">
-        <v>1080</v>
+        <v>840</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -4026,10 +4020,10 @@
         <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C248">
-        <v>840</v>
+        <v>780</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -4037,10 +4031,10 @@
         <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C249">
-        <v>780</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -4048,10 +4042,10 @@
         <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C250">
-        <v>1260</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -4059,10 +4053,10 @@
         <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C251">
-        <v>1140</v>
+        <v>203</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -4070,10 +4064,10 @@
         <v>252</v>
       </c>
       <c r="B252" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="C252">
-        <v>203</v>
+        <v>90</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -4081,10 +4075,10 @@
         <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C253">
-        <v>90</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -4092,10 +4086,10 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C254">
-        <v>1320</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -4103,10 +4097,10 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C255">
-        <v>1560</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -4114,10 +4108,10 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C256">
-        <v>1380</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -4125,10 +4119,10 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="C257">
-        <v>1260</v>
+        <v>110</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -4136,10 +4130,10 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="C258">
-        <v>110</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -4147,10 +4141,10 @@
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C259">
-        <v>1260</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -4158,10 +4152,10 @@
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C260">
-        <v>1140</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -4169,10 +4163,10 @@
         <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C261">
-        <v>1620</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -4180,10 +4174,10 @@
         <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C262">
-        <v>1920</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -4202,10 +4196,10 @@
         <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C264">
-        <v>1320</v>
+        <v>72</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -4213,20 +4207,9 @@
         <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C265">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>266</v>
-      </c>
-      <c r="B266" t="s">
-        <v>276</v>
-      </c>
-      <c r="C266">
         <v>110</v>
       </c>
     </row>
